--- a/publipostage/01jbb3w63/liste_essais_cliniques_identifies_01jbb3w63.xlsx
+++ b/publipostage/01jbb3w63/liste_essais_cliniques_identifies_01jbb3w63.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>status_label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
@@ -488,32 +493,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>NCT02837835</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Comparison of Lung Concentrations of Ceftazidime Administered by Continuous Versus Intermittent Infusion in Patients With Ventilator-associated Pneumonia</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>CEFTALC</t>
         </is>
       </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -525,28 +535,33 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>NCT00533104</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Critical Limb Ischemia Treatment by Local Intra-Muscular Injection of Autologous Mononuclear Cells</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -558,24 +573,33 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NCT01565434</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NCT01566071</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="b">
-        <v>0</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>DRIVE COG</t>
+        </is>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -587,32 +611,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NCT02833870</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NCT00904501</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Non-drug Taken Charge of Alzheimer's Disease: Profit Musical Activities</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MusicAlzheimer</t>
-        </is>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
+          <t>Cell Therapy in Critical Limb Ischemia</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>BALI</t>
+        </is>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -624,32 +653,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NCT00904501</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NCT01565434</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Cell Therapy in Critical Limb Ischemia</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>BALI</t>
-        </is>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -661,32 +687,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NCT02862639</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NCT03668925</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Efficacy of Viscosupplementation Associated With Intra-articular Corticosteroid Injection Versus Intra-articular Injection of Corticosteroids Alone in Osteoarthritis of Hip</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>VISCOSUPP-HIP</t>
-        </is>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
+          <t>Association Between Hidradenitis Suppurativa and Spondyloarthritis</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>VESPA</t>
+        </is>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -698,32 +729,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NCT03668925</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NCT02833870</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Association Between Hidradenitis Suppurativa and Spondyloarthritis</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>VESPA</t>
-        </is>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
+          <t>Non-drug Taken Charge of Alzheimer's Disease: Profit Musical Activities</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>MusicAlzheimer</t>
+        </is>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -735,28 +771,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NCT01566071</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NCT02862639</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>DRIVE COG</t>
-        </is>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
+          <t>Efficacy of Viscosupplementation Associated With Intra-articular Corticosteroid Injection Versus Intra-articular Injection of Corticosteroids Alone in Osteoarthritis of Hip</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>VISCOSUPP-HIP</t>
+        </is>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -768,32 +813,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>NCT02793453</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Antimicrobial Peptides in Periodontitis : a Pilot Study</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>PAROPAM</t>
         </is>
       </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -805,66 +855,76 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NCT02833909</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NCT02404142</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ex Vivo Study of the Inflammatory Response Associated With Hidradenitis Suppurativa</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="b">
-        <v>0</v>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>GICAC</t>
+        </is>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NCT02816151</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NCT02810496</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Children Toxine Botulinum Detrusor Injection in Neurogenic Vesical Hyperactivity Syndrom: Non Inferiority Multicenter Controlled Therapeutic Study Between Two Reported Weight's Doses</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>TBIDE</t>
-        </is>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
+          <t>Prevalence of Mutations of Glucocorticoid Receptors in Bilateral Adrenal Hyperplasia</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>MUTA-GR</t>
+        </is>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -873,34 +933,39 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2010-021265-80</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
+          <t>NCT02816151</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Injections intradétrusoriennes de toxine botulique A chez l'enfant présentant un syndrome d'hyperactivité vésicale neurogène : essai thérapeutique contrôlé multicentrique de non infériorité entre deux doses rapportées au poids.</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>Children Toxine Botulinum Detrusor Injection in Neurogenic Vesical Hyperactivity Syndrom: Non Inferiority Multicenter Controlled Therapeutic Study Between Two Reported Weight's Doses</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>TBIDE</t>
         </is>
       </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -912,66 +977,80 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NCT02404142</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NCT02784769</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>GICAC</t>
-        </is>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
+          <t>Role of Molecular Aging of Matrix Proteins of the Vessel Wall in the Aneurysm Pathology</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>VIMANE</t>
+        </is>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NCT02810496</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
+          <t>2010-021265-80</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Prevalence of Mutations of Glucocorticoid Receptors in Bilateral Adrenal Hyperplasia</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MUTA-GR</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
+          <t>Injections intradétrusoriennes de toxine botulique A chez l'enfant présentant un syndrome d'hyperactivité vésicale neurogène : essai thérapeutique contrôlé multicentrique de non infériorité entre deux doses rapportées au poids.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>TBIDE</t>
+        </is>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -982,32 +1061,33 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NCT02784769</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NCT02833909</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Role of Molecular Aging of Matrix Proteins of the Vessel Wall in the Aneurysm Pathology</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>VIMANE</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
+          <t>ex Vivo Study of the Inflammatory Response Associated With Hidradenitis Suppurativa</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1019,32 +1099,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NCT02818465</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NCT02862652</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Role of the Interaction Between AGEs and Their Receptor RAGE in the Development and the Progression of the Uremic Vasculopathy of Hemodialyzed Patients</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>RAGE-VASCU</t>
-        </is>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
+          <t>Role of the Microparticles and of Tissue Factor in the Pro-thrombotic Phenotype and the Thromboembolic Complications During the Acute Lymphoblastic Leukemia in Children</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>THROMBLEUKEMIA</t>
+        </is>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1056,32 +1141,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NCT02862652</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NCT02818465</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Role of the Microparticles and of Tissue Factor in the Pro-thrombotic Phenotype and the Thromboembolic Complications During the Acute Lymphoblastic Leukemia in Children</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>THROMBLEUKEMIA</t>
-        </is>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
+          <t>Role of the Interaction Between AGEs and Their Receptor RAGE in the Development and the Progression of the Uremic Vasculopathy of Hemodialyzed Patients</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>RAGE-VASCU</t>
+        </is>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1093,32 +1183,37 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>NCT02868944</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Interest of the Injection of Morphine, in Addition to a Local Anesthetic When Performing a Combined Spinal-epidural for Labor Analgesia</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>MASEA</t>
         </is>
       </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
       <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1130,32 +1225,37 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>NCT02808663</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Assessment of the Predictive Value of Fecal Calprotectin for the Outcome of Severe Alcoholic Hepatitis</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>CALPRO-HAA</t>
         </is>
       </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
       <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1167,28 +1267,33 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>NCT02792283</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Evaluation of the Bleeding Risk in Patient Undergoing Hemodialysis by the Analysis of Platelet Function by PFA-100®</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="b">
         <v>0</v>
       </c>
       <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1200,28 +1305,37 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NCT02814812</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>NCT02857387</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Postoperative Comput Tomography as a Predictor of Postoperative Complications After Pancreatic Surgery</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="b">
-        <v>0</v>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Markers of Vascular Aging and Coronary Syndrome</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>MAVASCOR</t>
+        </is>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
       <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1233,32 +1347,33 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NCT03007108</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>NCT02814812</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Determination of Normal Range Values of Thrombin Generation Parameters in Pediatrics Population Using a New Standardized Thrombin Generation Assay</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>TGT</t>
-        </is>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
+          <t>Postoperative Comput Tomography as a Predictor of Postoperative Complications After Pancreatic Surgery</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="b">
         <v>0</v>
       </c>
       <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1270,32 +1385,37 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NCT02794129</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>NCT03371277</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Functional Magnetic Resonance Imaging of Formal Thought Disorders in Bipolar Disorder</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>i-TCP</t>
-        </is>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
+          <t>Attributional Style Assessment in Patients With Parkinson's Disease Treated With Deep Brain Stimulation</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>ParkAIHQ</t>
+        </is>
       </c>
       <c r="H24" t="b">
         <v>0</v>
       </c>
       <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1307,32 +1427,37 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NCT02857387</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>NCT02794129</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Markers of Vascular Aging and Coronary Syndrome</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>MAVASCOR</t>
-        </is>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
+          <t>Functional Magnetic Resonance Imaging of Formal Thought Disorders in Bipolar Disorder</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>i-TCP</t>
+        </is>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
       <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1344,32 +1469,37 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NCT02770482</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>NCT03007108</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Utility of Amyloid Beta-peptide 1-40 Measurement in the Diagnosis of Alzheimer's Disease</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ADAB40</t>
-        </is>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
+          <t>Determination of Normal Range Values of Thrombin Generation Parameters in Pediatrics Population Using a New Standardized Thrombin Generation Assay</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>TGT</t>
+        </is>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
       <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1381,32 +1511,37 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>NCT02837926</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Work Package 4: HPV Vaccination of Women in Screening Ages</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>CoheaHr-WP4</t>
         </is>
       </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
       <c r="H27" t="b">
         <v>0</v>
       </c>
       <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1418,32 +1553,37 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NCT03371277</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>NCT02770482</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Attributional Style Assessment in Patients With Parkinson's Disease Treated With Deep Brain Stimulation</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ParkAIHQ</t>
-        </is>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
+          <t>Utility of Amyloid Beta-peptide 1-40 Measurement in the Diagnosis of Alzheimer's Disease</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>ADAB40</t>
+        </is>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
       <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1455,32 +1595,33 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NCT03664908</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>NCT02787980</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Detection of Anti-glomerular Basement Membrane Antibodies (Anti-GBM): a Promising Biomarker for Lupus Nephritis (LN) Screening in Systemic Lupus Erythematosus (SLE) Patients?</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>GOODLUPUS</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
+          <t>Dosage of Serum Tryptase Levels in a Population of Premature Newborns to Evaluate Mast Cell Activity</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="b">
         <v>0</v>
       </c>
       <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1492,28 +1633,37 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NCT02787980</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>NCT02794311</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Dosage of Serum Tryptase Levels in a Population of Premature Newborns to Evaluate Mast Cell Activity</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="b">
-        <v>0</v>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>AlcoholPredict: Neuropsychology, Brain Imaging and Genetic Polymorphisms in Binge Drinking</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>AlcoolPredict</t>
+        </is>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
       <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1525,32 +1675,37 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NCT02864121</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>NCT03344471</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Association Between High-risk HPV Genome Integration Detected by Molecular Combing and Cervical Lesions Severity and/or Evolution</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>IDAHO</t>
-        </is>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
+          <t>Factors Associated With Post-Traumatic Stress Disorder in Patients With After Preterm Delivery</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>PTSD-preterm</t>
+        </is>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
       <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1562,32 +1717,37 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NCT02862678</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NCT02816580</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Predictive Value of Diffusion-weighted MRI Performed in Early Post-treatment in the Occurrence of Tumor Recurrence or Progression in Head and Neck Squamous Cell Carcinoma Treated With Chemoradiotherapy: a Pilot Study</t>
-        </is>
-      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ORODIFF</t>
-        </is>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
+          <t>PTMDP (Post-translational Modification Derived Products) as Markers of Frailty in Elderly Subjects</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>MAFRA</t>
+        </is>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
       <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1599,32 +1759,37 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NCT03344471</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>NCT02864121</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Factors Associated With Post-Traumatic Stress Disorder in Patients With After Preterm Delivery</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>PTSD-preterm</t>
-        </is>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
+          <t>Association Between High-risk HPV Genome Integration Detected by Molecular Combing and Cervical Lesions Severity and/or Evolution</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>IDAHO</t>
+        </is>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
       <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1636,32 +1801,37 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NCT02816580</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>NCT02862678</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>PTMDP (Post-translational Modification Derived Products) as Markers of Frailty in Elderly Subjects</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>MAFRA</t>
-        </is>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
+          <t>Predictive Value of Diffusion-weighted MRI Performed in Early Post-treatment in the Occurrence of Tumor Recurrence or Progression in Head and Neck Squamous Cell Carcinoma Treated With Chemoradiotherapy: a Pilot Study</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>ORODIFF</t>
+        </is>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
       <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1673,27 +1843,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>NCT02867579</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Pregnancy Denial and Attachment</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Denial-attach</t>
         </is>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
       </c>
       <c r="H35" t="b">
         <v>1</v>
@@ -1701,6 +1873,9 @@
       <c r="I35" t="b">
         <v>1</v>
       </c>
+      <c r="J35" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1710,32 +1885,37 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NCT02794311</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NCT03664908</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>AlcoholPredict: Neuropsychology, Brain Imaging and Genetic Polymorphisms in Binge Drinking</t>
-        </is>
-      </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>AlcoolPredict</t>
-        </is>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
+          <t>Detection of Anti-glomerular Basement Membrane Antibodies (Anti-GBM): a Promising Biomarker for Lupus Nephritis (LN) Screening in Systemic Lupus Erythematosus (SLE) Patients?</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>GOODLUPUS</t>
+        </is>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
       <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1747,32 +1927,37 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>NCT02862743</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Molecular Characterization of Advanced Stage Melanoma by Blood Sampling</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>MELCIRC</t>
         </is>
       </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
       <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1784,32 +1969,37 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>NCT04301427</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Smallest Significant Value in Osteodensitomery in an Obese Population</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>PPVS-ob</t>
         </is>
       </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
       <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1821,32 +2011,37 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>NCT02879422</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Study of the Association Between Genetic Markers (Endothelial Lipase and Aldose Reductase) and Proliferative Diabetic Retinopathy</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>REDIAGEN</t>
         </is>
       </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
       <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1858,32 +2053,37 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NCT03666260</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>NCT02866812</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Comparison of the Clinical Effectiveness of the Quadratus Lumborum Block and Femoral Block in the Analgesia of Total Posterior Hip Arthroplasty</t>
-        </is>
-      </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>ATHAQLuB</t>
-        </is>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
+          <t>Prevalence and Factors Associated With the Occurrence of Depression Six Months After an Endovascular Treatment of Intracranial Aneurysm</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>DEP-AIC</t>
+        </is>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
       <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1895,28 +2095,37 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NCT03882463</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>NCT03666260</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Interest of SmartGuard Technology (Predictive System for Stopping Insulin Before Hypoglycemia) in Children With Type 1 Diabetes Treated With Insulin Pump</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="b">
-        <v>0</v>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Comparison of the Clinical Effectiveness of the Quadratus Lumborum Block and Femoral Block in the Analgesia of Total Posterior Hip Arthroplasty</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>ATHAQLuB</t>
+        </is>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
       <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1928,28 +2137,33 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>NCT04875494</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Physical Exercise and Self-esteem: a Randomized Controlled Trial in Domestic Violence Victims</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="b">
         <v>0</v>
       </c>
       <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1961,32 +2175,37 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>NCT03852888</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Kinetics of Elimination of Methotrexate and Its Major Metabolite 7-OH-methotrexate for Observant Patients</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>MetU</t>
         </is>
       </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
       <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1998,32 +2217,37 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NCT02862756</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>NCT04816084</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Analysis of Thrombo-embolic Complications After Endovascular Treatment of Unruptured Intracranial Aneurysms</t>
-        </is>
-      </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>ACET</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
+          <t>SERUR : Etude sérologique COVID-19 (Anti-SARS CoV 2) du Personnel de l'Université de Reims Champagne-Ardenne</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>SERUR</t>
+        </is>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
       <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2035,32 +2259,33 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NCT02866812</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>NCT03882463</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Prevalence and Factors Associated With the Occurrence of Depression Six Months After an Endovascular Treatment of Intracranial Aneurysm</t>
-        </is>
-      </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>DEP-AIC</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
+          <t>Interest of SmartGuard Technology (Predictive System for Stopping Insulin Before Hypoglycemia) in Children With Type 1 Diabetes Treated With Insulin Pump</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="b">
         <v>0</v>
       </c>
       <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2072,32 +2297,37 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NCT04816084</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>NCT03374618</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>SERUR : Etude sérologique COVID-19 (Anti-SARS CoV 2) du Personnel de l'Université de Reims Champagne-Ardenne</t>
-        </is>
-      </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>SERUR</t>
-        </is>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
+          <t>Neutrophil Extracellular Traps in Different Forms of Systemic Sclerosis</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>NET-SSC</t>
+        </is>
       </c>
       <c r="H46" t="b">
         <v>0</v>
       </c>
       <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2109,32 +2339,37 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NCT03374618</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>NCT02862756</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Neutrophil Extracellular Traps in Different Forms of Systemic Sclerosis</t>
-        </is>
-      </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>NET-SSC</t>
-        </is>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
+          <t>Analysis of Thrombo-embolic Complications After Endovascular Treatment of Unruptured Intracranial Aneurysms</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>ACET</t>
+        </is>
       </c>
       <c r="H47" t="b">
         <v>0</v>
       </c>
       <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2146,66 +2381,80 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>NCT04255121</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Interest of the Alkalinization of the Adrenaline Lidocaine Solution for Conversion of Epidural Analgesia Into Epidural Anesthesia During an Emergency Caesarean</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>BiEpIC</t>
         </is>
       </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
       <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NCT02826928</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>NCT03008746</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Diagnostic Performances of Urine and Plasma 5-hydroxyindolacetic Acid (5HIAA) Values in Patients With Small-intestine Neuroendocrine Tumors</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="b">
-        <v>1</v>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Pulmonary Microbiota in COPD Patients Colonized With P. Aeruginosa OprD Mutant Resistant to Imipenem</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>MiPAD</t>
+        </is>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2216,66 +2465,72 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>NCT04376840</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Prevalence of Long-term Respiratory Complications of Severe SARS-CoV-2 Pneumonia</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="b">
         <v>1</v>
       </c>
       <c r="I50" t="b">
         <v>1</v>
       </c>
+      <c r="J50" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>NCT04999254</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>NCT02826928</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Osteopathic Consultation in the Emergency Department for Fresh Lateral Ligament Sprain : a Randomized Controlled Trial</t>
-        </is>
-      </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>OASED</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
+          <t>Diagnostic Performances of Urine and Plasma 5-hydroxyindolacetic Acid (5HIAA) Values in Patients With Small-intestine Neuroendocrine Tumors</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J51" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2286,32 +2541,37 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NCT03008746</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>NCT05384418</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Pulmonary Microbiota in COPD Patients Colonized With P. Aeruginosa OprD Mutant Resistant to Imipenem</t>
-        </is>
-      </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>MiPAD</t>
-        </is>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
+          <t>Cardiac AMyloidosis Prevalence and Outcome in Aortic Stenosis Patients Undergoing Transcatheter Aortic Valve Implantation (CAMPOS-TAVI)</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>CAMPOS-TAVI</t>
+        </is>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
       <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2323,32 +2583,37 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NCT05391451</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>NCT04999254</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Clinical Efficacy of the Quadratus Lumborum Block for Analgesia in Kidney Transplant Surgery</t>
-        </is>
-      </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>CARRENAL</t>
-        </is>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
+          <t>Osteopathic Consultation in the Emergency Department for Fresh Lateral Ligament Sprain : a Randomized Controlled Trial</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>OASED</t>
+        </is>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
       <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2360,70 +2625,80 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NCT05384418</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>NCT05391451</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Cardiac AMyloidosis Prevalence and Outcome in Aortic Stenosis Patients Undergoing Transcatheter Aortic Valve Implantation (CAMPOS-TAVI)</t>
-        </is>
-      </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>CAMPOS-TAVI</t>
-        </is>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
+          <t>Clinical Efficacy of the Quadratus Lumborum Block for Analgesia in Kidney Transplant Surgery</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>CARRENAL</t>
+        </is>
       </c>
       <c r="H54" t="b">
         <v>0</v>
       </c>
       <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NCT03007095</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>NCT04117932</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Preterm Birth and Social Cognition: of the Executive Functions and Parental Anxiety's Stakes</t>
-        </is>
-      </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>TERM-COG</t>
-        </is>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
+          <t>Efficacy and Safety of Ustekinumab in Bullous Pemphigoid</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>PB-USTE</t>
+        </is>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J55" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2434,32 +2709,37 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NCT05392062</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>NCT04576494</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Pathophysiology of Gas Exchange and Time Course Changes in Spontaneously Breathing Patients With Acute Respiratory Failure Due to COVID-19. A Multicenter Prospective Study.</t>
-        </is>
-      </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>COVAQ</t>
-        </is>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
+          <t>Study of the Functional Effects of Nusinersen in 5q-spinal Muscular Amyotrophy Adults (SMA Type 2 or 3 Forms): a Multicenter Single-case Experimental Design in Multiple Baselines Across Subjects, Randomized, Single-blinded Evaluation</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>NUSI-AD-5qSM</t>
+        </is>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
       <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2471,32 +2751,37 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
           <t>NCT04429490</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>Organochlorine Concentration in Adipose Tissue and Pancreatic Adenocarcinoma : a Case Control Study.</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>PESTIPAC</t>
         </is>
       </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
       <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2508,70 +2793,80 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>NCT04576494</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>NCT05392062</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Study of the Functional Effects of Nusinersen in 5q-spinal Muscular Amyotrophy Adults (SMA Type 2 or 3 Forms): a Multicenter Single-case Experimental Design in Multiple Baselines Across Subjects, Randomized, Single-blinded Evaluation</t>
-        </is>
-      </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>NUSI-AD-5qSM</t>
-        </is>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
+          <t>Pathophysiology of Gas Exchange and Time Course Changes in Spontaneously Breathing Patients With Acute Respiratory Failure Due to COVID-19. A Multicenter Prospective Study.</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>COVAQ</t>
+        </is>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
       <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NCT04117932</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>NCT03007095</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Efficacy and Safety of Ustekinumab in Bullous Pemphigoid</t>
-        </is>
-      </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>PB-USTE</t>
-        </is>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
+          <t>Preterm Birth and Social Cognition: of the Executive Functions and Parental Anxiety's Stakes</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>TERM-COG</t>
+        </is>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J59" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2582,32 +2877,37 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NCT04237077</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>NCT05505968</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Impact of a Telephone Coaching Program on Evolution of Autonomy in Subjects Aged 75 Years or More Living at Home</t>
-        </is>
-      </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Frailcoach</t>
-        </is>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
+          <t>Evaluation of the Interest of a Virtual Reality Headset on Pain and Anxiety During Epidural Injection Through the Sacrococcygeal Hiatus in Patients With Lumbar Radicular Pain.</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Epi-RéV</t>
+        </is>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
       <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2619,32 +2919,37 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NCT05505968</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>NCT05105256</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Evaluation of the Interest of a Virtual Reality Headset on Pain and Anxiety During Epidural Injection Through the Sacrococcygeal Hiatus in Patients With Lumbar Radicular Pain.</t>
-        </is>
-      </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Epi-RéV</t>
-        </is>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
+          <t>Platelet-rich Plasma Infiltration Versus Corticosteroid Infiltration (Prednisolone) in Treatment of Lumbar Facet Joint Syndrome</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>IAPRP</t>
+        </is>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
       <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2656,32 +2961,37 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NCT04326569</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>NCT04237077</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Interest of the Copeptine Dosage in Diagnosis of Post-operative Insipidus Diabetes After Transsphenoidal Pituitary Surgery</t>
-        </is>
-      </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Copeptin-surg</t>
-        </is>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
+          <t>Impact of a Telephone Coaching Program on Evolution of Autonomy in Subjects Aged 75 Years or More Living at Home</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Frailcoach</t>
+        </is>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
       <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2693,32 +3003,37 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NCT05105256</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>NCT04933097</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Platelet-rich Plasma Infiltration Versus Corticosteroid Infiltration (Prednisolone) in Treatment of Lumbar Facet Joint Syndrome</t>
-        </is>
-      </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>IAPRP</t>
-        </is>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
+          <t>Evaluation of a New Screening Method for Sarcopenia in Rheumatoid Arthritis</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>SARCO-RA</t>
+        </is>
       </c>
       <c r="H63" t="b">
         <v>0</v>
       </c>
       <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2730,32 +3045,37 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NCT04933097</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>NCT04326569</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Evaluation of a New Screening Method for Sarcopenia in Rheumatoid Arthritis</t>
-        </is>
-      </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>SARCO-RA</t>
-        </is>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
+          <t>Interest of the Copeptine Dosage in Diagnosis of Post-operative Insipidus Diabetes After Transsphenoidal Pituitary Surgery</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Copeptin-surg</t>
+        </is>
       </c>
       <c r="H64" t="b">
         <v>0</v>
       </c>
       <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2767,24 +3087,29 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
           <t>NCT02807194</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
         <is>
           <t>Epidural Anesthesia Versus General Anesthesia for Elective Lumbar Disk Surgery in a Outpatient Basis</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="b">
         <v>0</v>
       </c>
       <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" t="b">
         <v>0</v>
       </c>
     </row>

--- a/publipostage/01jbb3w63/liste_essais_cliniques_identifies_01jbb3w63.xlsx
+++ b/publipostage/01jbb3w63/liste_essais_cliniques_identifies_01jbb3w63.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -526,6 +531,11 @@
       <c r="J2" t="b">
         <v>1</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -564,6 +574,11 @@
       <c r="J3" t="b">
         <v>1</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -602,6 +617,11 @@
       <c r="J4" t="b">
         <v>0</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -643,6 +663,11 @@
       </c>
       <c r="J5" t="b">
         <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -678,6 +703,11 @@
       <c r="J6" t="b">
         <v>0</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -720,6 +750,11 @@
       <c r="J7" t="b">
         <v>0</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -762,6 +797,11 @@
       <c r="J8" t="b">
         <v>0</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -804,6 +844,11 @@
       <c r="J9" t="b">
         <v>0</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -846,6 +891,11 @@
       <c r="J10" t="b">
         <v>0</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -884,6 +934,11 @@
       <c r="J11" t="b">
         <v>0</v>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -926,6 +981,11 @@
       <c r="J12" t="b">
         <v>1</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>GENETIC</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -968,6 +1028,11 @@
       <c r="J13" t="b">
         <v>0</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1010,6 +1075,11 @@
       <c r="J14" t="b">
         <v>0</v>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1052,6 +1122,7 @@
       <c r="J15" t="b">
         <v>0</v>
       </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1090,6 +1161,11 @@
       <c r="J16" t="b">
         <v>0</v>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1132,6 +1208,11 @@
       <c r="J17" t="b">
         <v>0</v>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1174,6 +1255,11 @@
       <c r="J18" t="b">
         <v>0</v>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1216,6 +1302,11 @@
       <c r="J19" t="b">
         <v>0</v>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1258,6 +1349,11 @@
       <c r="J20" t="b">
         <v>0</v>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1296,6 +1392,11 @@
       <c r="J21" t="b">
         <v>0</v>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1338,6 +1439,11 @@
       <c r="J22" t="b">
         <v>0</v>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1376,6 +1482,11 @@
       <c r="J23" t="b">
         <v>0</v>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1418,6 +1529,11 @@
       <c r="J24" t="b">
         <v>0</v>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1460,6 +1576,11 @@
       <c r="J25" t="b">
         <v>0</v>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1502,6 +1623,11 @@
       <c r="J26" t="b">
         <v>0</v>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1544,6 +1670,11 @@
       <c r="J27" t="b">
         <v>0</v>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1586,6 +1717,11 @@
       <c r="J28" t="b">
         <v>0</v>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1624,6 +1760,11 @@
       <c r="J29" t="b">
         <v>0</v>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1666,6 +1807,11 @@
       <c r="J30" t="b">
         <v>0</v>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1708,6 +1854,11 @@
       <c r="J31" t="b">
         <v>0</v>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1750,6 +1901,11 @@
       <c r="J32" t="b">
         <v>0</v>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1792,6 +1948,11 @@
       <c r="J33" t="b">
         <v>0</v>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1834,6 +1995,11 @@
       <c r="J34" t="b">
         <v>0</v>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1876,6 +2042,11 @@
       <c r="J35" t="b">
         <v>1</v>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1918,6 +2089,11 @@
       <c r="J36" t="b">
         <v>0</v>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1960,6 +2136,11 @@
       <c r="J37" t="b">
         <v>0</v>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2002,6 +2183,11 @@
       <c r="J38" t="b">
         <v>0</v>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2044,6 +2230,11 @@
       <c r="J39" t="b">
         <v>0</v>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>GENETIC</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2086,6 +2277,11 @@
       <c r="J40" t="b">
         <v>0</v>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2128,6 +2324,11 @@
       <c r="J41" t="b">
         <v>0</v>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2166,6 +2367,11 @@
       <c r="J42" t="b">
         <v>0</v>
       </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2208,6 +2414,11 @@
       <c r="J43" t="b">
         <v>0</v>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2250,6 +2461,11 @@
       <c r="J44" t="b">
         <v>0</v>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2288,6 +2504,11 @@
       <c r="J45" t="b">
         <v>0</v>
       </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2330,6 +2551,11 @@
       <c r="J46" t="b">
         <v>0</v>
       </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2372,6 +2598,11 @@
       <c r="J47" t="b">
         <v>0</v>
       </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2414,6 +2645,11 @@
       <c r="J48" t="b">
         <v>0</v>
       </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2455,6 +2691,11 @@
       </c>
       <c r="J49" t="b">
         <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -2494,6 +2735,11 @@
       <c r="J50" t="b">
         <v>1</v>
       </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2532,6 +2778,11 @@
       <c r="J51" t="b">
         <v>1</v>
       </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2574,6 +2825,11 @@
       <c r="J52" t="b">
         <v>0</v>
       </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2616,6 +2872,11 @@
       <c r="J53" t="b">
         <v>0</v>
       </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2658,6 +2919,11 @@
       <c r="J54" t="b">
         <v>0</v>
       </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2700,6 +2966,11 @@
       <c r="J55" t="b">
         <v>0</v>
       </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2742,6 +3013,11 @@
       <c r="J56" t="b">
         <v>0</v>
       </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2784,6 +3060,11 @@
       <c r="J57" t="b">
         <v>0</v>
       </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2826,6 +3107,11 @@
       <c r="J58" t="b">
         <v>0</v>
       </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2868,6 +3154,11 @@
       <c r="J59" t="b">
         <v>1</v>
       </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2910,6 +3201,11 @@
       <c r="J60" t="b">
         <v>0</v>
       </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2952,6 +3248,11 @@
       <c r="J61" t="b">
         <v>0</v>
       </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2994,6 +3295,11 @@
       <c r="J62" t="b">
         <v>0</v>
       </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3036,6 +3342,11 @@
       <c r="J63" t="b">
         <v>0</v>
       </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3077,6 +3388,11 @@
       </c>
       <c r="J64" t="b">
         <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -3111,6 +3427,11 @@
       </c>
       <c r="J65" t="b">
         <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
       </c>
     </row>
   </sheetData>
